--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound7.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound7.xlsx
@@ -91,6 +91,15 @@
     <t>95th Percentile Score</t>
   </si>
   <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>Arlington, TX</t>
+  </si>
+  <si>
     <t>HOU</t>
   </si>
   <si>
@@ -100,13 +109,13 @@
     <t>Houston, TX</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>Arlington, TX</t>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Bridgeview, IL</t>
   </si>
   <si>
     <t>SD</t>
@@ -116,15 +125,6 @@
   </si>
   <si>
     <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>Bridgeview, IL</t>
   </si>
   <si>
     <t>LA</t>
@@ -150,6 +150,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1E191A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC81C22"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,15 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1E191A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC81C22"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,14 +198,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,6 +236,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00AE94"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF020001"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,13 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00AE94"/>
+        <fgColor rgb="FF00653C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FF1785C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,18 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB98E2D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00653C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1785C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +339,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,23 +747,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>0.833977571712639</v>
+        <v>0.5247386843168649</v>
       </c>
       <c r="C3" s="13"/>
       <c r="E3" s="13">
-        <v>0.564629320466624</v>
+        <v>0.8130154783456013</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="13">
-        <v>0.5204807030587938</v>
+        <v>0.3370332208995031</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="13">
-        <v>0.3652878376203337</v>
+        <v>0.5621589850729329</v>
       </c>
       <c r="L3" s="13"/>
       <c r="N3" s="13">
-        <v>0.5483611486667194</v>
+        <v>0.5736937669407789</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -772,23 +772,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0.9990412983275448</v>
+        <v>0.9991699212561811</v>
       </c>
       <c r="C4" s="13"/>
       <c r="E4" s="13">
-        <v>0.999217687733268</v>
+        <v>0.9989743713828405</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="13">
-        <v>0.9974449811152066</v>
+        <v>0.4690533455217101</v>
       </c>
       <c r="I4" s="13"/>
       <c r="K4" s="13">
-        <v>0.4850405452159729</v>
+        <v>0.997209059361549</v>
       </c>
       <c r="L4" s="13"/>
       <c r="N4" s="13">
-        <v>0.9032337759404535</v>
+        <v>0.8997186603526547</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -797,23 +797,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>83.31780360198479</v>
+        <v>52.4303109888954</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="12">
-        <v>56.41876040230664</v>
+        <v>81.21816264048164</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="12">
-        <v>51.91508650333081</v>
+        <v>15.80865598148695</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="12">
-        <v>17.71794119201304</v>
+        <v>56.05900327162225</v>
       </c>
       <c r="L5" s="12"/>
       <c r="N5" s="12">
-        <v>49.52983108892853</v>
+        <v>51.61629874446256</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -822,34 +822,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>0.481774</v>
+        <v>0.5057452</v>
       </c>
       <c r="C6" s="14">
-        <v>0.518226</v>
+        <v>0.4725618</v>
       </c>
       <c r="E6" s="14">
-        <v>0.5164645</v>
+        <v>0.4687826</v>
       </c>
       <c r="F6" s="14">
-        <v>0.4835355</v>
+        <v>0.5055162</v>
       </c>
       <c r="H6" s="14">
-        <v>0.5297486</v>
+        <v>0.889137</v>
       </c>
       <c r="I6" s="14">
-        <v>0.4702514</v>
+        <v>0.098813</v>
       </c>
       <c r="K6" s="14">
-        <v>0.8948729</v>
+        <v>0.5145236</v>
       </c>
       <c r="L6" s="14">
-        <v>0.1051271</v>
+        <v>0.4542816</v>
       </c>
       <c r="N6" s="14">
-        <v>0.318948</v>
+        <v>0.3092126</v>
       </c>
       <c r="O6" s="14">
-        <v>0.681052</v>
+        <v>0.6700304</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -857,34 +857,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>23.5224922</v>
+        <v>30.9046102</v>
       </c>
       <c r="C7" s="15">
-        <v>24.1518218</v>
+        <v>30.0030036</v>
       </c>
       <c r="E7" s="15">
-        <v>30.9116586</v>
+        <v>23.5167786</v>
       </c>
       <c r="F7" s="15">
-        <v>29.98967</v>
+        <v>24.157387</v>
       </c>
       <c r="H7" s="15">
-        <v>19.0145942</v>
+        <v>46.5429868</v>
       </c>
       <c r="I7" s="15">
-        <v>17.8628768</v>
+        <v>20.8936102</v>
       </c>
       <c r="K7" s="15">
-        <v>46.5348708</v>
+        <v>19.0160814</v>
       </c>
       <c r="L7" s="15">
-        <v>20.8990142</v>
+        <v>17.8544156</v>
       </c>
       <c r="N7" s="15">
-        <v>23.2579646</v>
+        <v>23.2641622</v>
       </c>
       <c r="O7" s="15">
-        <v>31.4464504</v>
+        <v>31.4408174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -892,25 +892,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="15">
+      <c r="F8" s="15">
         <v>7</v>
       </c>
-      <c r="E8" s="15">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15">
-        <v>10</v>
-      </c>
       <c r="H8" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I8" s="15">
         <v>5</v>
       </c>
       <c r="K8" s="15">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L8" s="15">
         <v>5</v>
@@ -927,28 +927,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="15">
+        <v>14</v>
+      </c>
+      <c r="C9" s="15">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="F9" s="15">
         <v>10</v>
       </c>
-      <c r="E9" s="15">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15">
-        <v>14</v>
-      </c>
       <c r="H9" s="15">
+        <v>26</v>
+      </c>
+      <c r="I9" s="15">
         <v>7</v>
       </c>
-      <c r="I9" s="15">
+      <c r="K9" s="15">
+        <v>7</v>
+      </c>
+      <c r="L9" s="15">
         <v>6</v>
-      </c>
-      <c r="K9" s="15">
-        <v>26</v>
-      </c>
-      <c r="L9" s="15">
-        <v>7</v>
       </c>
       <c r="N9" s="15">
         <v>9</v>
@@ -962,25 +962,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="15">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15">
+        <v>17</v>
+      </c>
+      <c r="E10" s="15">
         <v>10</v>
       </c>
-      <c r="C10" s="15">
+      <c r="F10" s="15">
         <v>12</v>
       </c>
-      <c r="E10" s="15">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15">
-        <v>17</v>
-      </c>
       <c r="H10" s="15">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I10" s="15">
         <v>8</v>
       </c>
       <c r="K10" s="15">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="L10" s="15">
         <v>8</v>
@@ -997,28 +997,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="15">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15">
         <v>13</v>
       </c>
-      <c r="C11" s="15">
+      <c r="F11" s="15">
         <v>15</v>
       </c>
-      <c r="E11" s="15">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15">
-        <v>19</v>
-      </c>
       <c r="H11" s="15">
+        <v>31</v>
+      </c>
+      <c r="I11" s="15">
+        <v>11</v>
+      </c>
+      <c r="K11" s="15">
         <v>10</v>
       </c>
-      <c r="I11" s="15">
+      <c r="L11" s="15">
         <v>10</v>
-      </c>
-      <c r="K11" s="15">
-        <v>31</v>
-      </c>
-      <c r="L11" s="15">
-        <v>11</v>
       </c>
       <c r="N11" s="15">
         <v>13</v>
@@ -1032,28 +1032,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="15">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15">
         <v>14</v>
       </c>
-      <c r="C12" s="15">
+      <c r="F12" s="15">
         <v>15</v>
       </c>
-      <c r="E12" s="15">
-        <v>21</v>
-      </c>
-      <c r="F12" s="15">
-        <v>20</v>
-      </c>
       <c r="H12" s="15">
+        <v>34</v>
+      </c>
+      <c r="I12" s="15">
+        <v>13</v>
+      </c>
+      <c r="K12" s="15">
         <v>12</v>
       </c>
-      <c r="I12" s="15">
+      <c r="L12" s="15">
         <v>11</v>
-      </c>
-      <c r="K12" s="15">
-        <v>34</v>
-      </c>
-      <c r="L12" s="15">
-        <v>13</v>
       </c>
       <c r="N12" s="15">
         <v>15</v>
@@ -1067,28 +1067,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="15">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15">
+        <v>22</v>
+      </c>
+      <c r="E13" s="15">
         <v>17</v>
       </c>
-      <c r="C13" s="15">
+      <c r="F13" s="15">
         <v>17</v>
       </c>
-      <c r="E13" s="15">
-        <v>22</v>
-      </c>
-      <c r="F13" s="15">
-        <v>22</v>
-      </c>
       <c r="H13" s="15">
+        <v>36</v>
+      </c>
+      <c r="I13" s="15">
+        <v>14</v>
+      </c>
+      <c r="K13" s="15">
         <v>13</v>
       </c>
-      <c r="I13" s="15">
+      <c r="L13" s="15">
         <v>13</v>
-      </c>
-      <c r="K13" s="15">
-        <v>36</v>
-      </c>
-      <c r="L13" s="15">
-        <v>14</v>
       </c>
       <c r="N13" s="15">
         <v>17</v>
@@ -1102,28 +1102,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="15">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15">
         <v>17</v>
       </c>
-      <c r="C14" s="15">
+      <c r="F14" s="15">
         <v>19</v>
       </c>
-      <c r="E14" s="15">
-        <v>24</v>
-      </c>
-      <c r="F14" s="15">
-        <v>24</v>
-      </c>
       <c r="H14" s="15">
+        <v>39</v>
+      </c>
+      <c r="I14" s="15">
+        <v>15</v>
+      </c>
+      <c r="K14" s="15">
         <v>14</v>
       </c>
-      <c r="I14" s="15">
+      <c r="L14" s="15">
         <v>14</v>
-      </c>
-      <c r="K14" s="15">
-        <v>39</v>
-      </c>
-      <c r="L14" s="15">
-        <v>15</v>
       </c>
       <c r="N14" s="15">
         <v>18</v>
@@ -1137,28 +1137,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="15">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15">
         <v>20</v>
       </c>
-      <c r="C15" s="15">
+      <c r="F15" s="15">
         <v>20</v>
       </c>
-      <c r="E15" s="15">
-        <v>26</v>
-      </c>
-      <c r="F15" s="15">
-        <v>26</v>
-      </c>
       <c r="H15" s="15">
+        <v>41</v>
+      </c>
+      <c r="I15" s="15">
+        <v>17</v>
+      </c>
+      <c r="K15" s="15">
         <v>16</v>
       </c>
-      <c r="I15" s="15">
+      <c r="L15" s="15">
         <v>15</v>
-      </c>
-      <c r="K15" s="15">
-        <v>41</v>
-      </c>
-      <c r="L15" s="15">
-        <v>17</v>
       </c>
       <c r="N15" s="15">
         <v>19</v>
@@ -1172,28 +1172,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="15">
+        <v>28</v>
+      </c>
+      <c r="C16" s="15">
+        <v>27</v>
+      </c>
+      <c r="E16" s="15">
         <v>21</v>
       </c>
-      <c r="C16" s="15">
+      <c r="F16" s="15">
         <v>22</v>
       </c>
-      <c r="E16" s="15">
-        <v>28</v>
-      </c>
-      <c r="F16" s="15">
-        <v>27</v>
-      </c>
       <c r="H16" s="15">
+        <v>43</v>
+      </c>
+      <c r="I16" s="15">
+        <v>19</v>
+      </c>
+      <c r="K16" s="15">
         <v>17</v>
       </c>
-      <c r="I16" s="15">
+      <c r="L16" s="15">
         <v>16</v>
-      </c>
-      <c r="K16" s="15">
-        <v>43</v>
-      </c>
-      <c r="L16" s="15">
-        <v>19</v>
       </c>
       <c r="N16" s="15">
         <v>21</v>
@@ -1207,28 +1207,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="15">
+        <v>29</v>
+      </c>
+      <c r="C17" s="15">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15">
         <v>22</v>
       </c>
-      <c r="C17" s="15">
+      <c r="F17" s="15">
         <v>23</v>
       </c>
-      <c r="E17" s="15">
-        <v>29</v>
-      </c>
-      <c r="F17" s="15">
-        <v>29</v>
-      </c>
       <c r="H17" s="15">
+        <v>45</v>
+      </c>
+      <c r="I17" s="15">
+        <v>20</v>
+      </c>
+      <c r="K17" s="15">
         <v>18</v>
       </c>
-      <c r="I17" s="15">
+      <c r="L17" s="15">
         <v>17</v>
-      </c>
-      <c r="K17" s="15">
-        <v>45</v>
-      </c>
-      <c r="L17" s="15">
-        <v>20</v>
       </c>
       <c r="N17" s="15">
         <v>22</v>
@@ -1242,28 +1242,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="15">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15">
+        <v>31</v>
+      </c>
+      <c r="E18" s="15">
         <v>24</v>
       </c>
-      <c r="C18" s="15">
+      <c r="F18" s="15">
         <v>25</v>
       </c>
-      <c r="E18" s="15">
-        <v>31</v>
-      </c>
-      <c r="F18" s="15">
-        <v>31</v>
-      </c>
       <c r="H18" s="15">
+        <v>48</v>
+      </c>
+      <c r="I18" s="15">
+        <v>21</v>
+      </c>
+      <c r="K18" s="15">
         <v>19</v>
       </c>
-      <c r="I18" s="15">
+      <c r="L18" s="15">
         <v>18</v>
-      </c>
-      <c r="K18" s="15">
-        <v>48</v>
-      </c>
-      <c r="L18" s="15">
-        <v>21</v>
       </c>
       <c r="N18" s="15">
         <v>24</v>
@@ -1277,28 +1277,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="15">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15">
         <v>26</v>
       </c>
-      <c r="C19" s="15">
+      <c r="F19" s="15">
         <v>26</v>
       </c>
-      <c r="E19" s="15">
-        <v>33</v>
-      </c>
-      <c r="F19" s="15">
-        <v>32</v>
-      </c>
       <c r="H19" s="15">
+        <v>50</v>
+      </c>
+      <c r="I19" s="15">
+        <v>22</v>
+      </c>
+      <c r="K19" s="15">
         <v>20</v>
       </c>
-      <c r="I19" s="15">
+      <c r="L19" s="15">
         <v>19</v>
-      </c>
-      <c r="K19" s="15">
-        <v>50</v>
-      </c>
-      <c r="L19" s="15">
-        <v>22</v>
       </c>
       <c r="N19" s="15">
         <v>25</v>
@@ -1312,28 +1312,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="15">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15">
         <v>27</v>
       </c>
-      <c r="C20" s="15">
+      <c r="F20" s="15">
         <v>28</v>
       </c>
-      <c r="E20" s="15">
-        <v>36</v>
-      </c>
-      <c r="F20" s="15">
-        <v>34</v>
-      </c>
       <c r="H20" s="15">
+        <v>52</v>
+      </c>
+      <c r="I20" s="15">
+        <v>24</v>
+      </c>
+      <c r="K20" s="15">
         <v>22</v>
       </c>
-      <c r="I20" s="15">
+      <c r="L20" s="15">
         <v>21</v>
-      </c>
-      <c r="K20" s="15">
-        <v>52</v>
-      </c>
-      <c r="L20" s="15">
-        <v>24</v>
       </c>
       <c r="N20" s="15">
         <v>27</v>
@@ -1347,28 +1347,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="15">
+        <v>38</v>
+      </c>
+      <c r="C21" s="15">
+        <v>36</v>
+      </c>
+      <c r="E21" s="15">
         <v>29</v>
       </c>
-      <c r="C21" s="15">
+      <c r="F21" s="15">
         <v>30</v>
       </c>
-      <c r="E21" s="15">
-        <v>38</v>
-      </c>
-      <c r="F21" s="15">
-        <v>36</v>
-      </c>
       <c r="H21" s="15">
+        <v>55</v>
+      </c>
+      <c r="I21" s="15">
+        <v>26</v>
+      </c>
+      <c r="K21" s="15">
         <v>24</v>
       </c>
-      <c r="I21" s="15">
+      <c r="L21" s="15">
         <v>22</v>
-      </c>
-      <c r="K21" s="15">
-        <v>55</v>
-      </c>
-      <c r="L21" s="15">
-        <v>26</v>
       </c>
       <c r="N21" s="15">
         <v>29</v>
@@ -1382,28 +1382,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="15">
+        <v>40</v>
+      </c>
+      <c r="C22" s="15">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15">
         <v>31</v>
       </c>
-      <c r="C22" s="15">
+      <c r="F22" s="15">
         <v>32</v>
       </c>
-      <c r="E22" s="15">
-        <v>40</v>
-      </c>
-      <c r="F22" s="15">
-        <v>38</v>
-      </c>
       <c r="H22" s="15">
+        <v>57</v>
+      </c>
+      <c r="I22" s="15">
+        <v>28</v>
+      </c>
+      <c r="K22" s="15">
         <v>25</v>
       </c>
-      <c r="I22" s="15">
+      <c r="L22" s="15">
         <v>24</v>
-      </c>
-      <c r="K22" s="15">
-        <v>57</v>
-      </c>
-      <c r="L22" s="15">
-        <v>28</v>
       </c>
       <c r="N22" s="15">
         <v>31</v>
@@ -1417,28 +1417,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="15">
+        <v>43</v>
+      </c>
+      <c r="C23" s="15">
+        <v>41</v>
+      </c>
+      <c r="E23" s="15">
         <v>34</v>
       </c>
-      <c r="C23" s="15">
+      <c r="F23" s="15">
         <v>34</v>
       </c>
-      <c r="E23" s="15">
-        <v>43</v>
-      </c>
-      <c r="F23" s="15">
-        <v>41</v>
-      </c>
       <c r="H23" s="15">
+        <v>61</v>
+      </c>
+      <c r="I23" s="15">
+        <v>31</v>
+      </c>
+      <c r="K23" s="15">
         <v>27</v>
       </c>
-      <c r="I23" s="15">
+      <c r="L23" s="15">
         <v>25</v>
-      </c>
-      <c r="K23" s="15">
-        <v>61</v>
-      </c>
-      <c r="L23" s="15">
-        <v>31</v>
       </c>
       <c r="N23" s="15">
         <v>33</v>
@@ -1452,28 +1452,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="15">
+        <v>45</v>
+      </c>
+      <c r="C24" s="15">
+        <v>44</v>
+      </c>
+      <c r="E24" s="15">
         <v>36</v>
       </c>
-      <c r="C24" s="15">
+      <c r="F24" s="15">
         <v>36</v>
       </c>
-      <c r="E24" s="15">
-        <v>45</v>
-      </c>
-      <c r="F24" s="15">
-        <v>44</v>
-      </c>
       <c r="H24" s="15">
+        <v>64</v>
+      </c>
+      <c r="I24" s="15">
+        <v>33</v>
+      </c>
+      <c r="K24" s="15">
         <v>30</v>
       </c>
-      <c r="I24" s="15">
+      <c r="L24" s="15">
         <v>27</v>
-      </c>
-      <c r="K24" s="15">
-        <v>64</v>
-      </c>
-      <c r="L24" s="15">
-        <v>33</v>
       </c>
       <c r="N24" s="15">
         <v>36</v>
@@ -1487,28 +1487,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="15">
+        <v>50</v>
+      </c>
+      <c r="C25" s="15">
+        <v>47</v>
+      </c>
+      <c r="E25" s="15">
         <v>40</v>
       </c>
-      <c r="C25" s="15">
+      <c r="F25" s="15">
         <v>39</v>
       </c>
-      <c r="E25" s="15">
-        <v>50</v>
-      </c>
-      <c r="F25" s="15">
-        <v>47</v>
-      </c>
       <c r="H25" s="15">
+        <v>69</v>
+      </c>
+      <c r="I25" s="15">
+        <v>36</v>
+      </c>
+      <c r="K25" s="15">
         <v>33</v>
       </c>
-      <c r="I25" s="15">
+      <c r="L25" s="15">
         <v>30</v>
-      </c>
-      <c r="K25" s="15">
-        <v>69</v>
-      </c>
-      <c r="L25" s="15">
-        <v>36</v>
       </c>
       <c r="N25" s="15">
         <v>39</v>
@@ -1522,34 +1522,34 @@
         <v>24</v>
       </c>
       <c r="B26" s="15">
+        <v>55</v>
+      </c>
+      <c r="C26" s="15">
+        <v>53</v>
+      </c>
+      <c r="E26" s="15">
         <v>45</v>
       </c>
-      <c r="C26" s="15">
+      <c r="F26" s="15">
         <v>45</v>
       </c>
-      <c r="E26" s="15">
-        <v>55</v>
-      </c>
-      <c r="F26" s="15">
-        <v>53</v>
-      </c>
       <c r="H26" s="15">
+        <v>76</v>
+      </c>
+      <c r="I26" s="15">
+        <v>42</v>
+      </c>
+      <c r="K26" s="15">
         <v>37</v>
       </c>
-      <c r="I26" s="15">
+      <c r="L26" s="15">
         <v>34</v>
-      </c>
-      <c r="K26" s="15">
-        <v>76</v>
-      </c>
-      <c r="L26" s="15">
-        <v>42</v>
       </c>
       <c r="N26" s="15">
         <v>44</v>
       </c>
       <c r="O26" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
